--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf9-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf9-Fgfr2.xlsx
@@ -528,16 +528,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.29025</v>
+        <v>0.579684</v>
       </c>
       <c r="H2">
-        <v>6.870749999999999</v>
+        <v>1.739052</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3777296666666667</v>
+        <v>0.106124</v>
       </c>
       <c r="N2">
-        <v>1.133189</v>
+        <v>0.318372</v>
       </c>
       <c r="O2">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538251</v>
       </c>
       <c r="P2">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538253</v>
       </c>
       <c r="Q2">
-        <v>0.8650953690833333</v>
+        <v>0.06151838481599999</v>
       </c>
       <c r="R2">
-        <v>7.785858321749999</v>
+        <v>0.553665463344</v>
       </c>
       <c r="S2">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538251</v>
       </c>
       <c r="T2">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538253</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.29025</v>
+        <v>0.579684</v>
       </c>
       <c r="H3">
-        <v>6.870749999999999</v>
+        <v>1.739052</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>3.276869</v>
       </c>
       <c r="O3">
-        <v>0.6134761976883921</v>
+        <v>0.8331551016962769</v>
       </c>
       <c r="P3">
-        <v>0.6134761976883921</v>
+        <v>0.833155101696277</v>
       </c>
       <c r="Q3">
-        <v>2.501616409083333</v>
+        <v>0.6331828431319999</v>
       </c>
       <c r="R3">
-        <v>22.51454768175</v>
+        <v>5.698645588188</v>
       </c>
       <c r="S3">
-        <v>0.6134761976883921</v>
+        <v>0.8331551016962769</v>
       </c>
       <c r="T3">
-        <v>0.6134761976883921</v>
+        <v>0.833155101696277</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.29025</v>
+        <v>0.579684</v>
       </c>
       <c r="H4">
-        <v>6.870749999999999</v>
+        <v>1.739052</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3104730000000001</v>
+        <v>0.1126143333333333</v>
       </c>
       <c r="N4">
-        <v>0.9314190000000001</v>
+        <v>0.337843</v>
       </c>
       <c r="O4">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834044</v>
       </c>
       <c r="P4">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834046</v>
       </c>
       <c r="Q4">
-        <v>0.7110607882500001</v>
+        <v>0.06528072720399999</v>
       </c>
       <c r="R4">
-        <v>6.39954709425</v>
+        <v>0.587526544836</v>
       </c>
       <c r="S4">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834044</v>
       </c>
       <c r="T4">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834046</v>
       </c>
     </row>
   </sheetData>
